--- a/inst/shiny-examples/ContDataQC/rmd/tables/HOBOreformat_AFTER_20240226.xlsx
+++ b/inst/shiny-examples/ContDataQC/rmd/tables/HOBOreformat_AFTER_20240226.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jen.Stamp\Documents\Article_ContDataQC\ShinyApp_Maureen\ContDataQC_Edits_ForErik_20240225\ChangeFromFiguresToTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\ContDataQC\inst\shiny-examples\ContDataQC\rmd\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8803BCA5-4850-4281-960E-8417CB548E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9C14B5-20D3-4E53-8E35-6F6CB2F8198B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B132E629-1F95-420F-B360-BDA0F74170E5}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{B132E629-1F95-420F-B360-BDA0F74170E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>SiteID</t>
   </si>
@@ -66,6 +66,54 @@
   </si>
   <si>
     <t>B0997</t>
+  </si>
+  <si>
+    <t>2015-03-05  00:00:00</t>
+  </si>
+  <si>
+    <t>2015-03-05  00:30:00</t>
+  </si>
+  <si>
+    <t>2015-03-05  01:00:00</t>
+  </si>
+  <si>
+    <t>2015-03-05  01:30:00</t>
+  </si>
+  <si>
+    <t>2015-03-05  02:00:00</t>
+  </si>
+  <si>
+    <t>18.331</t>
+  </si>
+  <si>
+    <t>16.903</t>
+  </si>
+  <si>
+    <t>16.713</t>
+  </si>
+  <si>
+    <t>11.916</t>
+  </si>
+  <si>
+    <t>12.013</t>
+  </si>
+  <si>
+    <t>12.11</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>1.032</t>
+  </si>
+  <si>
+    <t>1.034</t>
+  </si>
+  <si>
+    <t>1.044</t>
+  </si>
+  <si>
+    <t>1.028</t>
   </si>
 </sst>
 </file>
@@ -101,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -114,6 +162,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,23 +485,23 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,15 +530,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
-        <v>42068</v>
-      </c>
-      <c r="C2" s="4">
-        <v>18.331</v>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>10246124</v>
@@ -492,8 +546,8 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
-        <v>11.916</v>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G2" s="1">
         <v>10246120</v>
@@ -501,19 +555,19 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="4">
-        <v>1.02</v>
+      <c r="I2" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
-        <v>42068.020833333336</v>
-      </c>
-      <c r="C3" s="4">
-        <v>16.902999999999999</v>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>10246124</v>
@@ -521,8 +575,8 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
-        <v>11.916</v>
+      <c r="F3" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G3" s="1">
         <v>10246120</v>
@@ -530,19 +584,19 @@
       <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="4">
-        <v>1.032</v>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>42068.041666666664</v>
-      </c>
-      <c r="C4" s="4">
-        <v>16.713000000000001</v>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>10246124</v>
@@ -550,8 +604,8 @@
       <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
-        <v>12.013</v>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>10246120</v>
@@ -559,16 +613,16 @@
       <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="4">
-        <v>1.034</v>
+      <c r="I4" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
-        <v>42068.0625</v>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="4">
         <v>16.902999999999999</v>
@@ -579,8 +633,8 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="4">
-        <v>12.013</v>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G5" s="1">
         <v>10246120</v>
@@ -588,19 +642,19 @@
       <c r="H5" s="1">
         <v>4</v>
       </c>
-      <c r="I5" s="4">
-        <v>1.044</v>
+      <c r="I5" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>42068.083333333336</v>
-      </c>
-      <c r="C6" s="4">
-        <v>16.902999999999999</v>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>10246124</v>
@@ -608,8 +662,8 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="4">
-        <v>12.11</v>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G6" s="1">
         <v>10246120</v>
@@ -617,8 +671,8 @@
       <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="I6" s="4">
-        <v>1.028</v>
+      <c r="I6" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
